--- a/static/cases.xlsx
+++ b/static/cases.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Morning\Desktop\Project\Project\neo4j_python_controller\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Morning\Documents\WeChat Files\wxid_pv2qqr16e4k622\FileStorage\File\2023-05\Project(3)\Project\neo4j_python_controller\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BFA0BE5-DAB0-496D-BBEE-7133505295AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E1862E7-9BBE-45F8-9093-813744133B9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13060" yWindow="6620" windowWidth="19200" windowHeight="13110" tabRatio="103" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="16200" windowHeight="27970" tabRatio="103" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -6578,172 +6578,172 @@
     <t>https://www.cbsnews.com/news/for-some-starbucks-workers-job-leaves-bitter-taste/</t>
   </si>
   <si>
-    <t>Data_acquisition</t>
+    <t>Uncertain</t>
+  </si>
+  <si>
+    <t>Uncertain</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Positive design that produces negative results that do not meet expectations</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Negative design that produces negative results that meet expectations</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Overly human-like and leading to ethics problems</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Not human-like enough to cause ethics problems</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Not enough beyond human to cause ethics problems</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ethics issues caused by the wrong user group</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ethics issues due to wrong user tasks</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Infringements on human rights</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Social detriment</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Emotional or psychological injury</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Loss of opportunity</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Physical injury</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Economic loss</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Transparency</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Justice and fairness</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Privacy</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Trust</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Non-maleficence</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Responsibility</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> The issue of data ownership. How to define the responsible subject of data ethics. User privacy is violated. </t>
+  </si>
+  <si>
+    <t>France</t>
+  </si>
+  <si>
+    <t>05, 05, 2020</t>
+  </si>
+  <si>
+    <t>Privacy and security issues due to face recognition</t>
+  </si>
+  <si>
+    <t>Face Recognition</t>
+  </si>
+  <si>
+    <t>The vast majority of users have had their face data collected without their knowledge. The company provides search services to police departments in the form of a search engine.</t>
+  </si>
+  <si>
+    <t>The company did not obtain the consent of the persons concerned to collect and use their photographs to provide its software. clearview AI also did not have a legitimate interest in collecting and using this data, especially given the intrusive and large-scale nature of the process, which made it possible to retrieve the Internet images of millions of Internet users in France. On the other hand, the company did not respond effectively to access and deletion requests. It provided partial responses or did not respond to requests at all.</t>
+  </si>
+  <si>
+    <t>Clearview AI collects photographs from many websites, including social media. It collects all the photographs that are directly accessible on these networks (i.e. that can be viewed without logging in to an account). Images are also extracted from videos available online on all platforms. Thus, the company has collected over 20 billion images worldwide. Thanks to this collection, the company markets access to its image database in the form of a search engine in which a person can be searched using a photograph. The company offers this service to law enforcement authorities in order to identify perpetrators or victims of crime. Facial recognition technology is used to query the search engine and find a person based on their photograph. In order to do so, the company builds a "biometric template", i.e. a digital representation of a person's physical characteristics (the face in this case). These biometric data are particularly sensitive, especially because they are linked to our physical identity (what we are) and enable us to identify ourselves in a unique way. The vast majority of people whose images are collected into the search engine are unaware of this feature.</t>
+  </si>
+  <si>
+    <t>Clearview AI</t>
+  </si>
+  <si>
+    <t>CNIL</t>
+  </si>
+  <si>
+    <t>Clearview AI: No response Public: The company's privacy collection service is done without notice to the person. CNIL: The company's actions violated two laws and penalties were imposed on it.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ctrip( XieCheng)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>degree of influence</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>High</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Case theme</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Data_access</t>
+    <t>Data acquisition</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Data_modeling</t>
+    <t>Data access</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Behavior_tracking</t>
+    <t>Data modeling</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Behavior_prediction</t>
+    <t>Behavior tracking</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Behaviour_nudging</t>
+    <t>Behavior prediction</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Wrong_user_group</t>
+    <t>Behaviour nudging</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Wrong_user_task</t>
+    <t>Wrong user group</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Surprising_learning_result</t>
+    <t>Wrong user task</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Uncertain</t>
-  </si>
-  <si>
-    <t>Uncertain</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Positive design that produces negative results that do not meet expectations</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Negative design that produces negative results that meet expectations</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Overly human-like and leading to ethics problems</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Not human-like enough to cause ethics problems</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Not enough beyond human to cause ethics problems</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>ethics issues caused by the wrong user group</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>ethics issues due to wrong user tasks</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Infringements on human rights</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Social detriment</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Emotional or psychological injury</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Loss of opportunity</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Physical injury</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Economic loss</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Transparency</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Justice and fairness</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Privacy</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Trust</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Non-maleficence</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Responsibility</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> The issue of data ownership. How to define the responsible subject of data ethics. User privacy is violated. </t>
-  </si>
-  <si>
-    <t>France</t>
-  </si>
-  <si>
-    <t>05, 05, 2020</t>
-  </si>
-  <si>
-    <t>Privacy and security issues due to face recognition</t>
-  </si>
-  <si>
-    <t>Face Recognition</t>
-  </si>
-  <si>
-    <t>The vast majority of users have had their face data collected without their knowledge. The company provides search services to police departments in the form of a search engine.</t>
-  </si>
-  <si>
-    <t>The company did not obtain the consent of the persons concerned to collect and use their photographs to provide its software. clearview AI also did not have a legitimate interest in collecting and using this data, especially given the intrusive and large-scale nature of the process, which made it possible to retrieve the Internet images of millions of Internet users in France. On the other hand, the company did not respond effectively to access and deletion requests. It provided partial responses or did not respond to requests at all.</t>
-  </si>
-  <si>
-    <t>Clearview AI collects photographs from many websites, including social media. It collects all the photographs that are directly accessible on these networks (i.e. that can be viewed without logging in to an account). Images are also extracted from videos available online on all platforms. Thus, the company has collected over 20 billion images worldwide. Thanks to this collection, the company markets access to its image database in the form of a search engine in which a person can be searched using a photograph. The company offers this service to law enforcement authorities in order to identify perpetrators or victims of crime. Facial recognition technology is used to query the search engine and find a person based on their photograph. In order to do so, the company builds a "biometric template", i.e. a digital representation of a person's physical characteristics (the face in this case). These biometric data are particularly sensitive, especially because they are linked to our physical identity (what we are) and enable us to identify ourselves in a unique way. The vast majority of people whose images are collected into the search engine are unaware of this feature.</t>
-  </si>
-  <si>
-    <t>Clearview AI</t>
-  </si>
-  <si>
-    <t>CNIL</t>
-  </si>
-  <si>
-    <t>Clearview AI: No response Public: The company's privacy collection service is done without notice to the person. CNIL: The company's actions violated two laws and penalties were imposed on it.</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Ctrip( XieCheng)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>degree of influence</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>High</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Case theme</t>
+    <t>Surprising learning result</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -6949,9 +6949,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -6989,9 +6989,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -7024,26 +7024,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -7076,26 +7059,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -7273,7 +7239,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="50" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C2" sqref="C2"/>
+      <selection pane="bottomLeft" activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6328125" defaultRowHeight="14.5" x14ac:dyDescent="0.25"/>
@@ -7309,12 +7275,12 @@
     <col min="40" max="16384" width="8.6328125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:79" s="3" customFormat="1" ht="43.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:79" s="3" customFormat="1" ht="58" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>1099</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1511</v>
+        <v>1502</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1100</v>
@@ -7359,91 +7325,91 @@
         <v>1320</v>
       </c>
       <c r="Q1" s="4" t="s">
+        <v>1500</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>1503</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>1504</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>1505</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>1506</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>1507</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>1508</v>
+      </c>
+      <c r="X1" s="1" t="s">
         <v>1509</v>
       </c>
-      <c r="R1" s="1" t="s">
-        <v>1467</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>1468</v>
-      </c>
-      <c r="T1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
+        <v>1510</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>1511</v>
+      </c>
+      <c r="AA1" s="4" t="s">
         <v>1469</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="AB1" s="4" t="s">
         <v>1470</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="AC1" s="4" t="s">
         <v>1471</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="AD1" s="1" t="s">
         <v>1472</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="AE1" s="1" t="s">
         <v>1473</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="AF1" s="1" t="s">
         <v>1474</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AG1" s="1" t="s">
         <v>1475</v>
       </c>
-      <c r="AA1" s="4" t="s">
+      <c r="AH1" s="1" t="s">
+        <v>1476</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>1477</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
         <v>1478</v>
       </c>
-      <c r="AB1" s="4" t="s">
+      <c r="AK1" s="1" t="s">
         <v>1479</v>
       </c>
-      <c r="AC1" s="4" t="s">
+      <c r="AL1" s="1" t="s">
         <v>1480</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AM1" s="4" t="s">
         <v>1481</v>
       </c>
-      <c r="AE1" s="1" t="s">
+      <c r="AN1" s="4" t="s">
         <v>1482</v>
       </c>
-      <c r="AF1" s="1" t="s">
+      <c r="AO1" s="4" t="s">
         <v>1483</v>
       </c>
-      <c r="AG1" s="1" t="s">
+      <c r="AP1" s="4" t="s">
         <v>1484</v>
       </c>
-      <c r="AH1" s="1" t="s">
+      <c r="AQ1" s="4" t="s">
         <v>1485</v>
       </c>
-      <c r="AI1" s="1" t="s">
+      <c r="AR1" s="4" t="s">
         <v>1486</v>
       </c>
-      <c r="AJ1" s="1" t="s">
+      <c r="AS1" s="4" t="s">
         <v>1487</v>
-      </c>
-      <c r="AK1" s="1" t="s">
-        <v>1488</v>
-      </c>
-      <c r="AL1" s="1" t="s">
-        <v>1489</v>
-      </c>
-      <c r="AM1" s="4" t="s">
-        <v>1490</v>
-      </c>
-      <c r="AN1" s="4" t="s">
-        <v>1491</v>
-      </c>
-      <c r="AO1" s="4" t="s">
-        <v>1492</v>
-      </c>
-      <c r="AP1" s="4" t="s">
-        <v>1493</v>
-      </c>
-      <c r="AQ1" s="4" t="s">
-        <v>1494</v>
-      </c>
-      <c r="AR1" s="4" t="s">
-        <v>1495</v>
-      </c>
-      <c r="AS1" s="4" t="s">
-        <v>1496</v>
       </c>
       <c r="AT1" s="4"/>
       <c r="AU1" s="4"/>
@@ -7625,7 +7591,7 @@
         <v>11</v>
       </c>
       <c r="D3" s="13" t="s">
-        <v>1508</v>
+        <v>1499</v>
       </c>
       <c r="E3" s="6" t="s">
         <v>1098</v>
@@ -7771,7 +7737,7 @@
         <v>23</v>
       </c>
       <c r="H4" s="6" t="s">
-        <v>1497</v>
+        <v>1488</v>
       </c>
       <c r="I4" s="15" t="s">
         <v>1066</v>
@@ -13461,7 +13427,7 @@
         <v>168</v>
       </c>
       <c r="N38" s="2" t="s">
-        <v>1477</v>
+        <v>1468</v>
       </c>
       <c r="O38" s="2" t="s">
         <v>1215</v>
@@ -20052,7 +20018,7 @@
         <v>534</v>
       </c>
       <c r="N77" s="2" t="s">
-        <v>1476</v>
+        <v>1467</v>
       </c>
       <c r="O77" s="2" t="s">
         <v>1252</v>
@@ -22418,7 +22384,7 @@
         <v>583</v>
       </c>
       <c r="N91" s="2" t="s">
-        <v>1476</v>
+        <v>1467</v>
       </c>
       <c r="O91" s="2" t="s">
         <v>1263</v>
@@ -32350,40 +32316,40 @@
         <v>148</v>
       </c>
       <c r="B150" t="s">
-        <v>1500</v>
+        <v>1491</v>
       </c>
       <c r="C150" t="s">
-        <v>1501</v>
+        <v>1492</v>
       </c>
       <c r="E150" t="s">
-        <v>1505</v>
+        <v>1496</v>
       </c>
       <c r="F150" t="s">
-        <v>1506</v>
+        <v>1497</v>
       </c>
       <c r="G150" t="s">
-        <v>1502</v>
+        <v>1493</v>
       </c>
       <c r="H150" t="s">
-        <v>1503</v>
+        <v>1494</v>
       </c>
       <c r="J150" t="s">
-        <v>1507</v>
+        <v>1498</v>
       </c>
       <c r="K150" t="s">
         <v>9</v>
       </c>
       <c r="M150" t="s">
-        <v>1504</v>
+        <v>1495</v>
       </c>
       <c r="N150" t="s">
-        <v>1498</v>
+        <v>1489</v>
       </c>
       <c r="O150" t="s">
-        <v>1499</v>
+        <v>1490</v>
       </c>
       <c r="Q150" s="2" t="s">
-        <v>1510</v>
+        <v>1501</v>
       </c>
       <c r="R150" s="2">
         <v>1</v>
